--- a/data/trans_dic/P16B97-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B97-Provincia-trans_dic.xlsx
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,49; 100,0</t>
+          <t>75,87; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,75; 100,0</t>
+          <t>92,09; 100,0</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,61; 100,0</t>
+          <t>74,65; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,86; 100,0</t>
+          <t>85,69; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,98; 100,0</t>
+          <t>77,86; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,42; 100,0</t>
+          <t>90,9; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,41; 100,0</t>
+          <t>86,38; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,77; 100,0</t>
+          <t>81,73; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,88; 100,0</t>
+          <t>94,75; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,97; 100,0</t>
+          <t>90,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,8; 100,0</t>
+          <t>75,91; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>78,41; 100,0</t>
+          <t>77,02; 100,0</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,33; 100,0</t>
+          <t>82,78; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,28; 100,0</t>
+          <t>91,76; 100,0</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,4; 100,0</t>
+          <t>90,92; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,98; 100,0</t>
+          <t>92,76; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,67; 98,38</t>
+          <t>84,71; 98,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>94,65; 99,62</t>
+          <t>94,3; 99,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>88,77; 100,0</t>
+          <t>88,27; 98,85</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>92,91; 100,0</t>
+          <t>91,98; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>95,31; 100,0</t>
+          <t>95,15; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1570,42 +1570,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>98,28; 100,0</t>
+          <t>98,32; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96,8; 100,0</t>
+          <t>96,74; 100,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,21; 100,0</t>
+          <t>95,09; 100,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,2; 99,62</t>
+          <t>97,25; 99,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>95,54; 99,24</t>
+          <t>95,73; 99,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>96,9; 100,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>97,93; 99,61</t>
+          <t>98,01; 99,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,17</t>
+          <t>96,94; 99,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B97-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B97-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,87; 100,0</t>
+          <t>81,77; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,09; 100,0</t>
+          <t>91,94; 100,0</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,65; 100,0</t>
+          <t>75,08; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,69; 100,0</t>
+          <t>83,03; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,86; 100,0</t>
+          <t>77,03; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,9; 100,0</t>
+          <t>92,77; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,38; 100,0</t>
+          <t>87,01; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,73; 100,0</t>
+          <t>83,79; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,75; 100,0</t>
+          <t>95,44; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,51; 100,0</t>
+          <t>90,37; 100,0</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>75,91; 100,0</t>
+          <t>73,79; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,02; 100,0</t>
+          <t>77,96; 100,0</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82,78; 100,0</t>
+          <t>82,32; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,76; 100,0</t>
+          <t>92,04; 100,0</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>90,92; 100,0</t>
+          <t>92,13; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,76; 100,0</t>
+          <t>91,87; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,71; 98,43</t>
+          <t>85,41; 98,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>94,3; 99,61</t>
+          <t>94,66; 99,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>88,27; 98,85</t>
+          <t>88,26; 98,87</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>91,98; 100,0</t>
+          <t>91,68; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>95,15; 100,0</t>
+          <t>95,22; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1570,27 +1570,27 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>98,32; 100,0</t>
+          <t>98,36; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96,74; 100,0</t>
+          <t>96,89; 100,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,09; 100,0</t>
+          <t>94,73; 100,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,25; 99,62</t>
+          <t>97,1; 99,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>95,73; 99,34</t>
+          <t>95,54; 99,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,64</t>
+          <t>97,66; 99,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>96,94; 99,31</t>
+          <t>97,03; 99,26</t>
         </is>
       </c>
     </row>
